--- a/results/better results/resultstime2.xlsx
+++ b/results/better results/resultstime2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam Wagner\Documents\Masterarbeit\PythonCode\results\better results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97CF839-F8C8-4069-9C0B-121DF3C94481}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17255915-98E6-4A61-90AF-2B48A43A7749}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1040" yWindow="1020" windowWidth="12000" windowHeight="7080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="20">
   <si>
     <t>fitness</t>
   </si>
@@ -470,13 +470,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,12 +486,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>0.16473983338040099</v>
+      </c>
+      <c r="C2">
+        <f>A2*2*B2/(A2+B2)</f>
+        <v>0.28287833670508178</v>
       </c>
     </row>
   </sheetData>
@@ -501,7 +507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
@@ -2229,7 +2235,7 @@
         <v>85.246224641799927</v>
       </c>
       <c r="N42">
-        <f>2*F42*G42/(F42+G42)</f>
+        <f t="shared" ref="N42:N49" si="0">2*F42*G42/(F42+G42)</f>
         <v>0.41793100880540612</v>
       </c>
     </row>
@@ -2271,7 +2277,7 @@
         <v>79.800132036209106</v>
       </c>
       <c r="N43">
-        <f>2*F43*G43/(F43+G43)</f>
+        <f t="shared" si="0"/>
         <v>0.41793100880540612</v>
       </c>
     </row>
@@ -2313,7 +2319,7 @@
         <v>70.934911489486694</v>
       </c>
       <c r="N44">
-        <f>2*F44*G44/(F44+G44)</f>
+        <f t="shared" si="0"/>
         <v>0.41793100880540612</v>
       </c>
     </row>
@@ -2355,7 +2361,7 @@
         <v>72.242661237716675</v>
       </c>
       <c r="N45">
-        <f>2*F45*G45/(F45+G45)</f>
+        <f t="shared" si="0"/>
         <v>0.41793100880540612</v>
       </c>
     </row>
@@ -2397,7 +2403,7 @@
         <v>76.725567102432251</v>
       </c>
       <c r="N46">
-        <f>2*F46*G46/(F46+G46)</f>
+        <f t="shared" si="0"/>
         <v>0.41793100880540612</v>
       </c>
     </row>
@@ -2439,7 +2445,7 @@
         <v>72.504050254821777</v>
       </c>
       <c r="N47">
-        <f>2*F47*G47/(F47+G47)</f>
+        <f t="shared" si="0"/>
         <v>0.41793100880540612</v>
       </c>
     </row>
@@ -2481,7 +2487,7 @@
         <v>72.176964282989502</v>
       </c>
       <c r="N48">
-        <f>2*F48*G48/(F48+G48)</f>
+        <f t="shared" si="0"/>
         <v>0.41793100880540612</v>
       </c>
     </row>
@@ -2523,7 +2529,7 @@
         <v>69.984298467636108</v>
       </c>
       <c r="N49">
-        <f>2*F49*G49/(F49+G49)</f>
+        <f t="shared" si="0"/>
         <v>0.41793100880540612</v>
       </c>
     </row>
@@ -2540,7 +2546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
@@ -4721,13 +4727,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F801D4D8-7C00-4948-9460-863D2B22894B}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
@@ -4763,6 +4772,32 @@
         <v>127</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <f>SUM(time!N42:N49)/8</f>
+        <v>0.41793100880540607</v>
+      </c>
+      <c r="C4">
+        <f>SUM(time_dev!O45:O49)/5</f>
+        <v>0.41793100880540612</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <f>SUM(time!L42:L49)/8</f>
+        <v>74.951851189136505</v>
+      </c>
+      <c r="C5">
+        <f>SUM(time_dev!M45:M49)/5</f>
+        <v>89.80199298858642</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/better results/resultstime2.xlsx
+++ b/results/better results/resultstime2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam Wagner\Documents\Masterarbeit\PythonCode\results\better results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17255915-98E6-4A61-90AF-2B48A43A7749}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F8FFEF-D9F4-4469-81A2-9D0B81190074}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="20">
   <si>
     <t>fitness</t>
   </si>
@@ -2546,7 +2546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+    <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
@@ -4727,10 +4727,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F801D4D8-7C00-4948-9460-863D2B22894B}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4798,6 +4798,32 @@
         <v>89.80199298858642</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <f>SUM(time!G42:G49)/8</f>
+        <v>0.26416737268191653</v>
+      </c>
+      <c r="C6">
+        <f>SUM(time_dev!H45:H49)/5</f>
+        <v>0.26416737268191659</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <f>SUM(time!F42:F49)/8</f>
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f>SUM(time_dev!G45:G49)/5</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
